--- a/ListView/data/ListViewAutomation.xlsx
+++ b/ListView/data/ListViewAutomation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="36" windowWidth="16212" windowHeight="5808"/>
+    <workbookView xWindow="0" yWindow="2472" windowWidth="12372" windowHeight="4476"/>
   </bookViews>
   <sheets>
     <sheet name="Xpath" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>WebElemnt</t>
   </si>
@@ -130,6 +131,9 @@
   </si>
   <si>
     <t>//button[@class='btn btn-primary o_form_button_save']</t>
+  </si>
+  <si>
+    <t>123</t>
   </si>
 </sst>
 </file>
@@ -182,10 +186,11 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -483,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -538,8 +543,8 @@
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
+      <c r="C5" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3">
